--- a/assets/files/UID Plots.xlsx
+++ b/assets/files/UID Plots.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89002634-F093-408F-B457-F9A76DF20B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -30,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
-    <t>Place Name</t>
-  </si>
-  <si>
     <t>ORR</t>
   </si>
   <si>
@@ -222,12 +216,15 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>PlaceName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,359 +565,359 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="29.88671875" customWidth="1"/>
-    <col min="8" max="8" width="29.77734375" customWidth="1"/>
-    <col min="9" max="9" width="30.21875" customWidth="1"/>
-    <col min="10" max="10" width="37.33203125" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.28515625" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/assets/files/UID Plots.xlsx
+++ b/assets/files/UID Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89002634-F093-408F-B457-F9A76DF20B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F22A2E-036F-40CA-A87A-B2BAF0994E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>ORR</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>PlaceName</t>
+  </si>
+  <si>
+    <t>Sno</t>
   </si>
 </sst>
 </file>
@@ -319,7 +322,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -371,7 +374,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -573,350 +576,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" customWidth="1"/>
-    <col min="10" max="10" width="37.28515625" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>61</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
       <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
       <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
       <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
       <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
       <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
         <v>48</v>
       </c>
     </row>

--- a/assets/files/UID Plots.xlsx
+++ b/assets/files/UID Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F22A2E-036F-40CA-A87A-B2BAF0994E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315EC242-F062-4F4B-A28E-17B9991B381F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,6 @@
     <t>ORR</t>
   </si>
   <si>
-    <t>Project Type</t>
-  </si>
-  <si>
-    <t>Area (Sq Yards)</t>
-  </si>
-  <si>
     <t>RUDRARAM</t>
   </si>
   <si>
@@ -222,6 +216,12 @@
   </si>
   <si>
     <t>Sno</t>
+  </si>
+  <si>
+    <t>ProjectType</t>
+  </si>
+  <si>
+    <t>Area(SqYards)</t>
   </si>
 </sst>
 </file>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,40 +599,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -640,16 +640,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -657,16 +657,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -674,16 +674,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -691,16 +691,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -708,16 +708,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -725,16 +725,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -742,16 +742,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -759,16 +759,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -776,16 +776,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -793,16 +793,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -810,16 +810,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -827,16 +827,16 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -844,16 +844,16 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
         <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -861,16 +861,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -878,16 +878,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -895,16 +895,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -912,16 +912,16 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
         <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,16 +929,16 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
         <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -946,16 +946,16 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -963,27 +963,27 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/assets/files/UID Plots.xlsx
+++ b/assets/files/UID Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315EC242-F062-4F4B-A28E-17B9991B381F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E93120E-6FE5-4586-998B-2A87EC466EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
     <t>ProjectType</t>
   </si>
   <si>
-    <t>Area(SqYards)</t>
+    <t>AreaSqYards</t>
   </si>
 </sst>
 </file>

--- a/assets/files/UID Plots.xlsx
+++ b/assets/files/UID Plots.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E93120E-6FE5-4586-998B-2A87EC466EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C7D02E-4CD1-4AC1-9194-BB5F517E6D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
   <si>
     <t>ORR</t>
   </si>
@@ -168,60 +168,81 @@
     <t>13,500/- PER SQ YRD</t>
   </si>
   <si>
-    <t xml:space="preserve">5&amp;6 MEDCHAL HIGH WAY
+    <t>3 PATANCHERUVU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 WARANGAL HIGH WAY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 WARANGAL HIGH WAY </t>
+  </si>
+  <si>
+    <t>16 BANGALORU HIGH WAY (NH-75)</t>
+  </si>
+  <si>
+    <t>11 VIJAYAWADA HIGH WAY (NH-65)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Popular Attractions</t>
+  </si>
+  <si>
+    <t>Schools</t>
+  </si>
+  <si>
+    <t>Hospitals</t>
+  </si>
+  <si>
+    <t>Wort Stations</t>
+  </si>
+  <si>
+    <t>Accesability</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Shadnagar is a town in Southern Hyderabad, located at a distance of approximately 50Km from Hyderabad city. Chatanpally, Farooknagar, Solipur, Kishannagar, Elikatta, and Hajipally are the nearby localities to Shadnagar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 MEDCHAL HIGH WAY
 </t>
   </si>
   <si>
-    <t xml:space="preserve">5&amp;6MEDCHAL HIGH WAY
+    <t xml:space="preserve">6 MEDCHAL HIGH WAY
 </t>
   </si>
   <si>
-    <t>3 PATANCHERUVU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 WARANGAL HIGH WAY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 WARANGAL HIGH WAY </t>
-  </si>
-  <si>
-    <t>16 BANGALORU HIGH WAY (NH-75)</t>
-  </si>
-  <si>
-    <t>11 VIJAYAWADA HIGH WAY (NH-65)</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Popular Attractions</t>
-  </si>
-  <si>
-    <t>Schools</t>
-  </si>
-  <si>
-    <t>Hospitals</t>
-  </si>
-  <si>
-    <t>Wort Stations</t>
-  </si>
-  <si>
-    <t>Accesability</t>
-  </si>
-  <si>
-    <t>Time</t>
+    <t>S/No</t>
+  </si>
+  <si>
+    <t>Funcity Water Park~Methodist Church~Lakh Bahosi Sanctuary</t>
+  </si>
+  <si>
+    <t>Nearby Schools to Shadnagar are, Medha International School, The Aga Khan Academy, Challenger International School, The Leader International School, and Sreenidhi International School</t>
+  </si>
+  <si>
+    <t>Hospitals that lie close to Shadnagar are Aditya Balaji Children Hospital, Sri Sai Eye Hospital, Vijaya Hospital, Krithika Hospital, and Chandana Childrens Hospital</t>
+  </si>
+  <si>
+    <t>The nearest IT parks to Shadnagar are Indu Tech Zone(44Km), The V IT Park (53Km), Meenakshi Tech Park (53Km), and Mindspaces Madhapur IT Park (53Km). Nanakramguda Financial District is 50Km, Gachibowli is 52Km, Manikonda is 52Km and Madhapur is 56Km via NH44 and Nehru Outer Ring Road.</t>
+  </si>
+  <si>
+    <t>ProjectType</t>
   </si>
   <si>
     <t>PlaceName</t>
   </si>
   <si>
-    <t>Sno</t>
-  </si>
-  <si>
-    <t>ProjectType</t>
-  </si>
-  <si>
-    <t>AreaSqYards</t>
+    <t>Area(SqYards)</t>
+  </si>
+  <si>
+    <t>Mindspaces Madhapur IT Park~Nanakramguda Financial District~Gachibowli~Indu Tech Zone~V IT Park~Madhapur</t>
+  </si>
+  <si>
+    <t>53Km (1Hr)~50Km (1Hr)~52Km (1hr)~44Km (1hr)~56Km (1Hr)</t>
   </si>
 </sst>
 </file>
@@ -322,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -374,7 +395,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -576,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,13 +609,13 @@
     <col min="3" max="3" width="42.7109375" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="183.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="163.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="141" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="100.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -605,34 +626,34 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>58</v>
-      </c>
-      <c r="K1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -640,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -657,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -674,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -691,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -708,7 +729,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -725,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -742,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -754,72 +775,89 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -827,16 +865,16 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -844,146 +882,329 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/assets/files/UID Plots.xlsx
+++ b/assets/files/UID Plots.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C7D02E-4CD1-4AC1-9194-BB5F517E6D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4978373-8AD2-454F-A9E8-43C473AD3EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,9 +215,6 @@
 </t>
   </si>
   <si>
-    <t>S/No</t>
-  </si>
-  <si>
     <t>Funcity Water Park~Methodist Church~Lakh Bahosi Sanctuary</t>
   </si>
   <si>
@@ -236,13 +233,16 @@
     <t>PlaceName</t>
   </si>
   <si>
-    <t>Area(SqYards)</t>
-  </si>
-  <si>
     <t>Mindspaces Madhapur IT Park~Nanakramguda Financial District~Gachibowli~Indu Tech Zone~V IT Park~Madhapur</t>
   </si>
   <si>
     <t>53Km (1Hr)~50Km (1Hr)~52Km (1hr)~44Km (1hr)~56Km (1Hr)</t>
+  </si>
+  <si>
+    <t>SNo</t>
+  </si>
+  <si>
+    <t>AreaSqYards</t>
   </si>
 </sst>
 </file>
@@ -343,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -395,7 +395,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,19 +620,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
         <v>52</v>
@@ -999,22 +999,22 @@
         <v>59</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
         <v>63</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>64</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>65</v>
       </c>
-      <c r="J21" t="s">
-        <v>66</v>
-      </c>
       <c r="K21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1037,22 +1037,22 @@
         <v>59</v>
       </c>
       <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
         <v>63</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>64</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>65</v>
       </c>
-      <c r="J22" t="s">
-        <v>66</v>
-      </c>
       <c r="K22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1075,22 +1075,22 @@
         <v>59</v>
       </c>
       <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
         <v>63</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>64</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>65</v>
       </c>
-      <c r="J23" t="s">
-        <v>66</v>
-      </c>
       <c r="K23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1113,22 +1113,22 @@
         <v>59</v>
       </c>
       <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
         <v>63</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>64</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>65</v>
       </c>
-      <c r="J24" t="s">
-        <v>66</v>
-      </c>
       <c r="K24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1151,22 +1151,22 @@
         <v>59</v>
       </c>
       <c r="G25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" t="s">
         <v>63</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>64</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>65</v>
       </c>
-      <c r="J25" t="s">
-        <v>66</v>
-      </c>
       <c r="K25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1189,22 +1189,22 @@
         <v>59</v>
       </c>
       <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
         <v>63</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>64</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>65</v>
       </c>
-      <c r="J26" t="s">
-        <v>66</v>
-      </c>
       <c r="K26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/assets/files/UID Plots.xlsx
+++ b/assets/files/UID Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4978373-8AD2-454F-A9E8-43C473AD3EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED01241-C830-45FB-B5B6-6680364DDA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>Hospitals</t>
   </si>
   <si>
-    <t>Wort Stations</t>
-  </si>
-  <si>
     <t>Accesability</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>AreaSqYards</t>
+  </si>
+  <si>
+    <t>WorkStations</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,19 +620,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
         <v>52</v>
@@ -647,13 +647,13 @@
         <v>55</v>
       </c>
       <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>57</v>
-      </c>
-      <c r="L1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -729,7 +729,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -746,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -780,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -797,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -814,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -996,25 +996,25 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
         <v>62</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>63</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>64</v>
       </c>
-      <c r="J21" t="s">
-        <v>65</v>
-      </c>
       <c r="K21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" t="s">
         <v>68</v>
-      </c>
-      <c r="L21" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1034,25 +1034,25 @@
         <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" t="s">
         <v>62</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>63</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>64</v>
       </c>
-      <c r="J22" t="s">
-        <v>65</v>
-      </c>
       <c r="K22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" t="s">
         <v>68</v>
-      </c>
-      <c r="L22" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1072,25 +1072,25 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
         <v>62</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>63</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>64</v>
       </c>
-      <c r="J23" t="s">
-        <v>65</v>
-      </c>
       <c r="K23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" t="s">
         <v>68</v>
-      </c>
-      <c r="L23" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1110,25 +1110,25 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
         <v>62</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>63</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>64</v>
       </c>
-      <c r="J24" t="s">
-        <v>65</v>
-      </c>
       <c r="K24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" t="s">
         <v>68</v>
-      </c>
-      <c r="L24" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1148,25 +1148,25 @@
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" t="s">
         <v>62</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>63</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>64</v>
       </c>
-      <c r="J25" t="s">
-        <v>65</v>
-      </c>
       <c r="K25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" t="s">
         <v>68</v>
-      </c>
-      <c r="L25" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1186,25 +1186,25 @@
         <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
         <v>62</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>63</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>64</v>
       </c>
-      <c r="J26" t="s">
-        <v>65</v>
-      </c>
       <c r="K26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" t="s">
         <v>68</v>
-      </c>
-      <c r="L26" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/assets/files/UID Plots.xlsx
+++ b/assets/files/UID Plots.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED01241-C830-45FB-B5B6-6680364DDA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D25279B-3EDB-4E12-9D3D-11F8CF0FA28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="87">
   <si>
     <t>ORR</t>
   </si>
@@ -234,6 +234,51 @@
   </si>
   <si>
     <t>53Km (1Hr)~50Km (1Hr)~52Km (1hr)~44Km (1hr)~56Km (1Hr)</t>
+  </si>
+  <si>
+    <t>IT IS BELIEVED THAT THE ENTIRE TOWN WAS CARVED OUT ON A SINGLE ROCK.The State government was giving utmost priority to Warangal development and various projects worth Rs 4,126 crore were being executed in the city.In the last six years under Greater Warangal Municipal Corporation (GWMC), as many as 9,111 works were taken up at a cost of Rs 1,560 crore and of them, around 5,340 works had already been completed creating infrastructure for the citizens of the city.</t>
+  </si>
+  <si>
+    <t>Top CBSE School in Hyderabad - GIIS Hyderabad, Global Indian International School, Sage International School, Rotterdam International School, Sri Chaitanya School,DPS Warangal</t>
+  </si>
+  <si>
+    <t>Cure Hospitals, VajraHospitals, Life Line Hospitals, Maheshwar's Lalitha Multi-Specialty Hospital.</t>
+  </si>
+  <si>
+    <t>GGK Technologies, Cyient Ltd, Sreeal Technologies, EsaleMedia - A PABBAS Company, Akshara IT Solutions Pvt Ltd etc</t>
+  </si>
+  <si>
+    <t>Patancheru is one of the sought-after residential and industrial neighbourhoods in the western part of Hyderabad. Due to its excellent connectivity to Hitech City, Patancheru is witnessing rapid growth in the real estate sector.</t>
+  </si>
+  <si>
+    <t>Rainbow International School, Oakdale International School and The Gaudium School  are  situated within 5Km to 7Km</t>
+  </si>
+  <si>
+    <t>Max Care Hospitals, Indira Hospital, Yashodara Hospital, Apoorva clinic &amp; children's hospitals, RAINBOW CHILDREN'S CLINIC.</t>
+  </si>
+  <si>
+    <t>Rubber Limited, Asian Paints, Aurobindo Pharma, Paragon Polymer Products Pvt Ltd. and many more. The famous employment hubs such as Kondapur (15Km) and Gachibowli (16Km) are reachable via National Highway-65. Some of the renowned tech parks which are easily accessible from Patancheru are aVance Business Hub,</t>
+  </si>
+  <si>
+    <t>Lingampalli Railway Station~Miyapur Metro Station (Red Line) ~Kondapur~Gachibowli</t>
+  </si>
+  <si>
+    <t>9Km (10mins)~13Km(20mins)~15Km(20mins)~16Km(20mins)</t>
+  </si>
+  <si>
+    <t>Medchal is in news for the upcoming planned development by the government to uplift its infrastructure.As per the Medchal-Malkajgiri district official government website, the locality houses a population of 22.5 lakh and is the second most populated district in the state of Telangana. "Being the second most populated district, Medchal also possesses lot of demand for housing. Major demand is for plotted developments and the brownie point is for the fact that the locality offers Hyderabad Metropolitan Development Authority (HMDA) approved plots. As the area is strategically located on the ORR and NH-7, connectivity is another factor which attracts buyers", says Sandeep Kumaran from Nirdesh Properties and Services.</t>
+  </si>
+  <si>
+    <t>Vignan Global Gen School, Hi-Tech Modern Residential High School, Sanskar Innovative School, Medchal, Sri Chaitanya school, SMARTKiDZ PRE SCHOOL, THE CREEK PLANET SCHOOL - ORBIT CAMPUS ets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEELA MULTISPECIALITY HOSPITAL- A Unit of SVP Health Care, Advitha Children and Multispeciality Hospital, GOVERNMENT HOSPITAL, Pragnya Hospital - Best Super Speciality Hospital </t>
+  </si>
+  <si>
+    <t>Mindspaces Madhapur IT Park~Nanakramguda Financial District~Gachibowli~Madhapur~Seccunderabad Station~Airport</t>
+  </si>
+  <si>
+    <t>30Km(1Hr)~50Km(1hr)~55Km(1Hr)~30Km(1Hr)~25Km(1Hr)~43Km(1Hr)</t>
   </si>
   <si>
     <t>SNo</t>
@@ -249,13 +294,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,11 +329,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -395,7 +447,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -599,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,18 +661,18 @@
     <col min="3" max="3" width="42.7109375" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="183.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="163.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="141" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="161.42578125" customWidth="1"/>
+    <col min="8" max="8" width="220.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="167.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" customWidth="1"/>
     <col min="11" max="11" width="100.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="74.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -632,7 +684,7 @@
         <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
         <v>52</v>
@@ -647,7 +699,7 @@
         <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K1" t="s">
         <v>56</v>
@@ -656,7 +708,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -672,8 +724,26 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -689,8 +759,26 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -705,6 +793,24 @@
       </c>
       <c r="E4" t="s">
         <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -723,6 +829,21 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -740,6 +861,21 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -757,6 +893,21 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -774,6 +925,21 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -791,6 +957,21 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -808,6 +989,21 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -825,6 +1021,21 @@
       <c r="E11" t="s">
         <v>17</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -842,6 +1053,21 @@
       <c r="E12" t="s">
         <v>19</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -859,6 +1085,24 @@
       <c r="E13" t="s">
         <v>21</v>
       </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -876,6 +1120,24 @@
       <c r="E14" t="s">
         <v>3</v>
       </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -893,6 +1155,24 @@
       <c r="E15" t="s">
         <v>24</v>
       </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -910,6 +1190,24 @@
       <c r="E16" t="s">
         <v>27</v>
       </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -927,6 +1225,24 @@
       <c r="E17" t="s">
         <v>28</v>
       </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -944,6 +1260,24 @@
       <c r="E18" t="s">
         <v>32</v>
       </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -979,7 +1313,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>

--- a/assets/files/UID Plots.xlsx
+++ b/assets/files/UID Plots.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D25279B-3EDB-4E12-9D3D-11F8CF0FA28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E3A5AF-3769-4AAB-8BF4-0E5D3802F8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -447,7 +447,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/files/UID Plots.xlsx
+++ b/assets/files/UID Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E3A5AF-3769-4AAB-8BF4-0E5D3802F8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8816006A-E92E-4C72-957A-3F8177BF4EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/files/UID Plots.xlsx
+++ b/assets/files/UID Plots.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A6891B-67A8-48C4-96CE-37921C40FEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F44FB1-E1E9-40F1-BC7F-DEF6207EFE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -496,7 +496,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +766,7 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>57</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>57</v>
@@ -964,6 +964,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
@@ -1000,7 +1003,7 @@
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>57</v>
@@ -1038,7 +1041,7 @@
     </row>
     <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>58</v>
@@ -1076,7 +1079,7 @@
     </row>
     <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>58</v>
@@ -1114,7 +1117,7 @@
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>58</v>
@@ -1152,7 +1155,7 @@
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>58</v>
@@ -1190,7 +1193,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
@@ -1231,7 +1234,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
@@ -1272,7 +1275,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
@@ -1313,7 +1316,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
@@ -1354,7 +1357,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
@@ -1395,7 +1398,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>48</v>
@@ -1436,7 +1439,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -1477,7 +1480,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -1518,7 +1521,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
@@ -1562,7 +1565,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
@@ -1606,7 +1609,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
@@ -1650,7 +1653,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
@@ -1694,7 +1697,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -1738,7 +1741,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>

--- a/assets/files/UID Plots.xlsx
+++ b/assets/files/UID Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F44FB1-E1E9-40F1-BC7F-DEF6207EFE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923538D9-19F4-43FE-B43E-64B45990B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,9 +299,6 @@
     <t>/UID plot images/villa2</t>
   </si>
   <si>
-    <t>/UID plot image/farm land</t>
-  </si>
-  <si>
     <t>/UID images/patancheru</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>PopularAttractions</t>
+  </si>
+  <si>
+    <t>/UID plot images/farm land</t>
   </si>
 </sst>
 </file>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +722,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s">
         <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J1" t="s">
         <v>52</v>
@@ -755,7 +755,7 @@
         <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M1" t="s">
         <v>54</v>
@@ -772,7 +772,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -854,7 +854,7 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -895,7 +895,7 @@
         <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -933,7 +933,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -971,7 +971,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1009,7 +1009,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1085,7 +1085,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1123,7 +1123,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1161,7 +1161,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1199,7 +1199,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1240,7 +1240,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1281,7 +1281,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1322,7 +1322,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -1363,7 +1363,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
@@ -1404,7 +1404,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -1413,7 +1413,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -1445,7 +1445,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -1486,7 +1486,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
         <v>44</v>
@@ -1527,7 +1527,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
@@ -1571,7 +1571,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -1615,7 +1615,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -1659,7 +1659,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
@@ -1703,7 +1703,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
@@ -1712,7 +1712,7 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -1747,7 +1747,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
         <v>42</v>

--- a/assets/files/UID Plots.xlsx
+++ b/assets/files/UID Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923538D9-19F4-43FE-B43E-64B45990B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0FCE99-2072-49A5-A12A-1086D81EF75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1668,7 @@
         <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
